--- a/df_final.xlsx
+++ b/df_final.xlsx
@@ -1470,7 +1470,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>29</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>70</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>54</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>62</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>44</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>59</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>69</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>33</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>47</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>53</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>60</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>47</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>25</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>58</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>58</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>47</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>55</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>35</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>47</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>23</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>34</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>44</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>43</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>18</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>55</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>55</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>53</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>67</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>65</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>66</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>52</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>47</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>25</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>22</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>58</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>34</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>28</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>44</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>27</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>30</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>57</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>39</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>62</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>74</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>37</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>40</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>59</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>51</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>32</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>34</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>31</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>66</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>18</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>18</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>67</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>27</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>45</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>75</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>12</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>64</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>49</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>28</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>61</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>48</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>48</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>66</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>54</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>45</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>33</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>62</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>28</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>49</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>51</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>30</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>36</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>29</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>54</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>70</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>39</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>64</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>46</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>63</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>37</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>32</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>37</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>72</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>71</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>57</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>75</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>29</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>70</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>54</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>32</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>62</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>44</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>59</v>
@@ -7216,7 +7216,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>66</v>
@@ -7276,7 +7276,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>18</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>18</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>67</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>45</v>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>75</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>12</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>64</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>34</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>49</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>28</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>61</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>48</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>66</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>54</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>58</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>33</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>62</v>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>28</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>47</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>49</v>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>51</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>30</v>
